--- a/Demo_smart_hospital/ExcelReader/test_data.xlsx
+++ b/Demo_smart_hospital/ExcelReader/test_data.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11150" windowHeight="6120" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidPostMessage" sheetId="1" r:id="rId1"/>
     <sheet name="SendSMS" sheetId="2" r:id="rId2"/>
+    <sheet name="AddStock" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>title</t>
   </si>
@@ -67,6 +68,36 @@
   </si>
   <si>
     <t>hello everyone</t>
+  </si>
+  <si>
+    <t>ItemCategory</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Bed Sheets</t>
+  </si>
+  <si>
+    <t>Bed Sheet</t>
+  </si>
+  <si>
+    <t>VK Supplier</t>
+  </si>
+  <si>
+    <t>Vinay Pharmacy</t>
   </si>
 </sst>
 </file>
@@ -80,14 +111,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,148 +567,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,7 +1087,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1100,4 +1124,68 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="16.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="14.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="18.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="12.9090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Demo_smart_hospital/ExcelReader/test_data.xlsx
+++ b/Demo_smart_hospital/ExcelReader/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6920" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6920" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidPostMessage" sheetId="1" r:id="rId1"/>
@@ -1132,7 +1132,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
